--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>firstName</t>
   </si>
@@ -40,21 +40,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -64,19 +49,10 @@
     <t>R</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -418,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,41 +412,53 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>452021</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>452022</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>452023</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -480,60 +468,8 @@
       <c r="C5">
         <v>452024</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>452025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>452026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>452027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>452028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>452029</v>
       </c>
     </row>
   </sheetData>
